--- a/project_website/Mission_Statements/mission_statements.xlsx
+++ b/project_website/Mission_Statements/mission_statements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marijkevandergeer/Documents/GitHub/dspg23census/Mission_Statements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marijkevandergeer/Documents/GitHub/dspg23census/project_website/Mission_Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B883E78-2676-FD4F-A279-F89831B0E10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93FD254-3329-CE47-AB75-C7E800EEE128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2320" windowWidth="33600" windowHeight="19340" xr2:uid="{35F9064C-EB55-0C4E-9850-DE204F7559D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{35F9064C-EB55-0C4E-9850-DE204F7559D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="164">
   <si>
     <t>State</t>
   </si>
@@ -159,10 +159,6 @@
     <t>https://opb.georgia.gov/about-us</t>
   </si>
   <si>
-    <t>OPB exists to serve the Governor and the state in five primary ways: Work with the Governor each year to develop a budget recommendation for the upcoming and amended fiscal years that is based on agency requests and that will be presented to the General Assembly; Provide research and analysis to the Governor’s Office and other state agencies related to budgetary items as well as to produce an efficient and effective state government;
-Review the agencies’ annual operating budgets to ensure that spending plans comply with the approved appropriations act, sound fiscal stewardship, and the Governor’s goals; Develop the state’s strategic plan, outlining the Governor’s vision for the state and how agencies can best support that vision; Supply official demographic and statistical data about the state of Georgia</t>
-  </si>
-  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -303,9 +299,6 @@
     <t>https://www.unomaha.edu/college-of-public-affairs-and-community-service/center-for-public-affairs-research/about-us/about-us.php</t>
   </si>
   <si>
-    <t>The Center for Public Affairs Research collaboratively produces and disseminates high-quality public scholarship about topics that impact the lives of Nebraskans. Ongoing projects from CPAR, include policy analyses for the Planning Committee of the Nebraska State Legislature, the Nebraska Rural Transit Project, governing.unomaha.edu, and designation by the U.S. Census Bureau as a statewide liaison for disseminating a range of data products.</t>
-  </si>
-  <si>
     <t>Nevada</t>
   </si>
   <si>
@@ -339,9 +332,6 @@
     <t>https://edd.newmexico.gov/about-us/</t>
   </si>
   <si>
-    <t>The mission of the New Mexico Economic Development Department is to improve the lives of New Mexico families by increasing economic opportunities and providing a place for businesses to thrive.</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
@@ -477,9 +467,6 @@
     <t>https://ofm.wa.gov/washington-data-research/about-us</t>
   </si>
   <si>
-    <t>OFM Forecasting and Research is uniquely positioned as a source for data, research, and statistical analyses to inform decisions by the Governor, the legislature, other state agencies, research communities, and the public. We are home to in-house analytical research and databases ranging from health care, education, demographic characteristics, criminal justice, traffic safety, and economic trends. As data custodians, we value privacy, security, and access. We are committed to promoting diverse and inclusive research communities, reliable data sources, rigorous program evaluations, and accessible information.</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
@@ -498,18 +485,12 @@
     <t>http://eadiv.state.wy.us/About_Us.html</t>
   </si>
   <si>
-    <t>The Economic Analysis Division's core mission is to coordinate, develop, and disseminate economic &amp; demographic research and information. Central to the Division's mission is the application of economic theory using mathematical and statistical tools. Division competencies include the following: Managing the Decennial Census of Population database, Maintaining the REMI and minerals model, Forecasting the behavior of economic variables used in state revenue projections, Generating the State's biannual cost of living index, Providing quality customer service to clients via published reports, presentations, and customized information responses, Providing policy and economic analysis to state agencies.</t>
-  </si>
-  <si>
     <t>U.S. Virgin Islands</t>
   </si>
   <si>
     <t>https://www.uvi.edu/research/eastern-caribbean-center/social-research-institute/</t>
   </si>
   <si>
-    <t>The Research Institute compiles and analyzes demographic, social and economic data, and disseminates these data into various forums and formats. The Institute also conducts scientific surveys to measure the Territory's population and housing characteristics. Its Activities includes: Management of of Statistical Studies on the Virgin Islands, Conduct of population &amp; housing surveys, Conduct of the VI Decennial Census, Production of a territorial Statistical Digest</t>
-  </si>
-  <si>
     <t>Commonwealth of the Northern Mariana Islands</t>
   </si>
   <si>
@@ -525,18 +506,12 @@
     <t>https://estadisticas.pr/en/sobre-nosotros/mision-y-vision</t>
   </si>
   <si>
-    <t xml:space="preserve">The Institute will be the leading entity in statistics. It will guarantee the country that it has complete, reliable statistics with rapid and universal access. It will inspire confidence, seriousness and prestige for its high methodological standards. It will objectively support government management, promote the use of universal norms and standards, and stimulate investigative capacity among the new generations of professionals. </t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
     <t>https://bsp.guam.gov/about-us/</t>
   </si>
   <si>
-    <t>The Bureau of Statistics and Plans’ mission is to ensure Guam’s resources are effectively used for the benefit of present and future generations by ensuring consistency among various plans, policies and programs.</t>
-  </si>
-  <si>
     <t>American Samoa</t>
   </si>
   <si>
@@ -553,13 +528,16 @@
   </si>
   <si>
     <t>Coordinating</t>
+  </si>
+  <si>
+    <t>Examined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,6 +578,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -651,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -690,6 +676,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1007,38 +996,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5843CF7-D1A8-0949-ABA2-A4FD8D999B33}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1060,8 +1052,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="404" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -1083,8 +1078,11 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1106,8 +1104,11 @@
       <c r="G4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1130,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1152,8 +1156,11 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1175,8 +1182,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1198,8 +1208,11 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1221,8 +1234,11 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1244,8 +1260,11 @@
       <c r="G10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1267,20 +1286,21 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1290,19 +1310,22 @@
       <c r="G12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -1313,13 +1336,16 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -1332,13 +1358,16 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -1351,65 +1380,74 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -1420,19 +1458,22 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1443,13 +1484,16 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -1462,19 +1506,22 @@
       <c r="G20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -1485,42 +1532,48 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1531,22 +1584,25 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1554,42 +1610,48 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1600,66 +1662,73 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1669,42 +1738,48 @@
       <c r="G29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
@@ -1715,19 +1790,22 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -1738,20 +1816,21 @@
       <c r="G32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="372" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
@@ -1761,19 +1840,22 @@
       <c r="G33" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
@@ -1784,42 +1866,48 @@
       <c r="G34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
@@ -1830,19 +1918,22 @@
       <c r="G36" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
@@ -1853,19 +1944,22 @@
       <c r="G37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -1876,19 +1970,22 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
@@ -1899,19 +1996,22 @@
       <c r="G39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
@@ -1922,42 +2022,48 @@
       <c r="G40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
@@ -1968,19 +2074,22 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
@@ -1991,19 +2100,22 @@
       <c r="G43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -2014,19 +2126,22 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
@@ -2037,19 +2152,22 @@
       <c r="G45" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
@@ -2060,19 +2178,22 @@
       <c r="G46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -2083,13 +2204,16 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -2102,20 +2226,21 @@
       <c r="G48" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="1" t="s">
         <v>11</v>
       </c>
@@ -2125,13 +2250,16 @@
       <c r="G49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -2144,66 +2272,71 @@
       <c r="G50" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>155</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
@@ -2213,43 +2346,47 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="1" t="s">
         <v>11</v>
       </c>
@@ -2259,20 +2396,21 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="356" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="1" t="s">
         <v>11</v>
       </c>
@@ -2282,13 +2420,16 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -2300,6 +2441,9 @@
       </c>
       <c r="G57" s="1">
         <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
